--- a/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_8_7.xlsx
+++ b/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_8_7.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q14"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,716 +518,1321 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_8_7_0</t>
+          <t>model_8_7_5</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.940591003332145</v>
+        <v>0.9535213928605935</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7112422819888355</v>
+        <v>0.7157882487587514</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7857669505160395</v>
+        <v>0.7809435936143386</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7755373834635266</v>
+        <v>0.8965726855829347</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8562603797637202</v>
+        <v>0.9204814036585016</v>
       </c>
       <c r="G2" t="n">
-        <v>0.3972682342712229</v>
+        <v>0.3108026599555185</v>
       </c>
       <c r="H2" t="n">
-        <v>1.930924189947691</v>
+        <v>1.900525289225011</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3957875286081568</v>
+        <v>0.6407950645508308</v>
       </c>
       <c r="J2" t="n">
-        <v>1.394777804216134</v>
+        <v>0.5339834879375133</v>
       </c>
       <c r="K2" t="n">
-        <v>0.8952834367555732</v>
+        <v>0.5873892456145012</v>
       </c>
       <c r="L2" t="n">
-        <v>0.9694479703198547</v>
+        <v>2.284304951139477</v>
       </c>
       <c r="M2" t="n">
-        <v>0.6302921816675365</v>
+        <v>0.5574967802198668</v>
       </c>
       <c r="N2" t="n">
-        <v>1.034775998049476</v>
+        <v>1.027206989545018</v>
       </c>
       <c r="O2" t="n">
-        <v>0.6571250247258086</v>
+        <v>0.5812305723312566</v>
       </c>
       <c r="P2" t="n">
-        <v>131.8462871467392</v>
+        <v>132.3371942042197</v>
       </c>
       <c r="Q2" t="n">
-        <v>211.0732157631722</v>
+        <v>211.5641228206527</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_8_7_1</t>
+          <t>model_8_7_6</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9398494075693351</v>
+        <v>0.9544056935872191</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7072222600082687</v>
+        <v>0.7154630600129991</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7422271162697489</v>
+        <v>0.7531766583995245</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7630759060861048</v>
+        <v>0.8910497802432117</v>
       </c>
       <c r="F3" t="n">
-        <v>0.843587128667983</v>
+        <v>0.9130533132121929</v>
       </c>
       <c r="G3" t="n">
-        <v>0.4022272885518675</v>
+        <v>0.3048893369247427</v>
       </c>
       <c r="H3" t="n">
-        <v>1.95780609544224</v>
+        <v>1.902699827865213</v>
       </c>
       <c r="I3" t="n">
-        <v>0.4762257403306593</v>
+        <v>0.722020331307148</v>
       </c>
       <c r="J3" t="n">
-        <v>1.472211598412974</v>
+        <v>0.5624976214957121</v>
       </c>
       <c r="K3" t="n">
-        <v>0.9742188880751674</v>
+        <v>0.6422591835202911</v>
       </c>
       <c r="L3" t="n">
-        <v>0.9107303561513984</v>
+        <v>2.266540141288291</v>
       </c>
       <c r="M3" t="n">
-        <v>0.6342139138743863</v>
+        <v>0.5521678521289906</v>
       </c>
       <c r="N3" t="n">
-        <v>1.035210102886243</v>
+        <v>1.026689350095287</v>
       </c>
       <c r="O3" t="n">
-        <v>0.6612137131918087</v>
+        <v>0.5756747807391498</v>
       </c>
       <c r="P3" t="n">
-        <v>131.8214759114614</v>
+        <v>132.3756127959366</v>
       </c>
       <c r="Q3" t="n">
-        <v>211.0484045278944</v>
+        <v>211.6025414123696</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_8_7_2</t>
+          <t>model_8_7_4</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9387190501628414</v>
+        <v>0.9518527472926179</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7030973501032927</v>
+        <v>0.7154556442536054</v>
       </c>
       <c r="D4" t="n">
-        <v>0.70190674096691</v>
+        <v>0.8093348341588573</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7507266366171226</v>
+        <v>0.9021188304755481</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8314472314659345</v>
+        <v>0.9280411908274352</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4097859937339077</v>
+        <v>0.3219609005519773</v>
       </c>
       <c r="H4" t="n">
-        <v>1.985389386970279</v>
+        <v>1.902749417082425</v>
       </c>
       <c r="I4" t="n">
-        <v>0.5507161223333614</v>
+        <v>0.5577435477402555</v>
       </c>
       <c r="J4" t="n">
-        <v>1.548948149110811</v>
+        <v>0.5053493712048458</v>
       </c>
       <c r="K4" t="n">
-        <v>1.049832340170306</v>
+        <v>0.5315464882411707</v>
       </c>
       <c r="L4" t="n">
-        <v>0.857166619408992</v>
+        <v>2.301663081025687</v>
       </c>
       <c r="M4" t="n">
-        <v>0.6401452911128127</v>
+        <v>0.567415985456858</v>
       </c>
       <c r="N4" t="n">
-        <v>1.035871775514434</v>
+        <v>1.02818375768237</v>
       </c>
       <c r="O4" t="n">
-        <v>0.6673976014389185</v>
+        <v>0.591572058670772</v>
       </c>
       <c r="P4" t="n">
-        <v>131.7842404441168</v>
+        <v>132.2666503353356</v>
       </c>
       <c r="Q4" t="n">
-        <v>211.0111690605498</v>
+        <v>211.4935789517686</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_8_7_3</t>
+          <t>model_8_7_7</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9373560287592347</v>
+        <v>0.9547064626143994</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6989868848075906</v>
+        <v>0.714674321812358</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6651456657208983</v>
+        <v>0.7264390126609543</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7387773443044177</v>
+        <v>0.8856569849781336</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8200347855006029</v>
+        <v>0.9058745564269983</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4189005241359622</v>
+        <v>0.3028780930550738</v>
       </c>
       <c r="H5" t="n">
-        <v>2.01287608732959</v>
+        <v>1.907974123844705</v>
       </c>
       <c r="I5" t="n">
-        <v>0.6186308308979087</v>
+        <v>0.8002346675581504</v>
       </c>
       <c r="J5" t="n">
-        <v>1.623199300376096</v>
+        <v>0.5903400115027385</v>
       </c>
       <c r="K5" t="n">
-        <v>1.120914856103172</v>
+        <v>0.6952873395304444</v>
       </c>
       <c r="L5" t="n">
-        <v>0.8092993932527542</v>
+        <v>2.248888062379519</v>
       </c>
       <c r="M5" t="n">
-        <v>0.6472252499215109</v>
+        <v>0.5503436136225021</v>
       </c>
       <c r="N5" t="n">
-        <v>1.036669641701911</v>
+        <v>1.026513290176937</v>
       </c>
       <c r="O5" t="n">
-        <v>0.6747789687516381</v>
+        <v>0.5737728806227458</v>
       </c>
       <c r="P5" t="n">
-        <v>131.7402435996203</v>
+        <v>132.3888497751641</v>
       </c>
       <c r="Q5" t="n">
-        <v>210.9671722160534</v>
+        <v>211.6157783915971</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_8_7_4</t>
+          <t>model_8_7_3</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9358719838193015</v>
+        <v>0.9491478346883815</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6949852726835288</v>
+        <v>0.7142178112122982</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6319700696702357</v>
+        <v>0.8378101401905754</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7274362306179494</v>
+        <v>0.907553429413632</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8094573573453702</v>
+        <v>0.9355786786554214</v>
       </c>
       <c r="G6" t="n">
-        <v>0.4288243394826944</v>
+        <v>0.3400486635914839</v>
       </c>
       <c r="H6" t="n">
-        <v>2.039634886028921</v>
+        <v>1.911026812329343</v>
       </c>
       <c r="I6" t="n">
-        <v>0.6799215010471815</v>
+        <v>0.4744461182436038</v>
       </c>
       <c r="J6" t="n">
-        <v>1.693671318786375</v>
+        <v>0.4772911535777554</v>
       </c>
       <c r="K6" t="n">
-        <v>1.186796456564376</v>
+        <v>0.4758684519979833</v>
       </c>
       <c r="L6" t="n">
-        <v>0.7657183887935756</v>
+        <v>2.317926540376393</v>
       </c>
       <c r="M6" t="n">
-        <v>0.6548468061178083</v>
+        <v>0.5831369166769361</v>
       </c>
       <c r="N6" t="n">
-        <v>1.037538350935043</v>
+        <v>1.029767121158021</v>
       </c>
       <c r="O6" t="n">
-        <v>0.6827249903740082</v>
+        <v>0.6079622624797028</v>
       </c>
       <c r="P6" t="n">
-        <v>131.6934158179663</v>
+        <v>132.1573330868071</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.9203444343993</v>
+        <v>211.3842617032401</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_8_7_5</t>
+          <t>model_8_7_8</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9343458636022162</v>
+        <v>0.9545812608316864</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6911603678894509</v>
+        <v>0.7135713281552336</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6022382473384895</v>
+        <v>0.7010078764932228</v>
       </c>
       <c r="E7" t="n">
-        <v>0.716836000191076</v>
+        <v>0.8804711750525702</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7997602631004908</v>
+        <v>0.8990268012882064</v>
       </c>
       <c r="G7" t="n">
-        <v>0.4390295124014814</v>
+        <v>0.3037153179525776</v>
       </c>
       <c r="H7" t="n">
-        <v>2.065212041998988</v>
+        <v>1.915349847508715</v>
       </c>
       <c r="I7" t="n">
-        <v>0.7348499283372001</v>
+        <v>0.8746271348275723</v>
       </c>
       <c r="J7" t="n">
-        <v>1.759539597197792</v>
+        <v>0.6171137596894791</v>
       </c>
       <c r="K7" t="n">
-        <v>1.247194889841349</v>
+        <v>0.7458704472585257</v>
       </c>
       <c r="L7" t="n">
-        <v>0.7259970646328345</v>
+        <v>2.231712282534025</v>
       </c>
       <c r="M7" t="n">
-        <v>0.6625930216969399</v>
+        <v>0.551103727035644</v>
       </c>
       <c r="N7" t="n">
-        <v>1.038431689598703</v>
+        <v>1.026586579025354</v>
       </c>
       <c r="O7" t="n">
-        <v>0.6908009783872202</v>
+        <v>0.5745653536375369</v>
       </c>
       <c r="P7" t="n">
-        <v>131.646377283479</v>
+        <v>132.3833289408527</v>
       </c>
       <c r="Q7" t="n">
-        <v>210.873305899912</v>
+        <v>211.6102575572858</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_8_7_6</t>
+          <t>model_8_7_9</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9328315769596986</v>
+        <v>0.9541530285602998</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6875559927417669</v>
+        <v>0.7122682283397832</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5757175072858209</v>
+        <v>0.677058077685134</v>
       </c>
       <c r="E8" t="n">
-        <v>0.7070439907561903</v>
+        <v>0.8755463912986564</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7909426568168376</v>
+        <v>0.892563539548028</v>
       </c>
       <c r="G8" t="n">
-        <v>0.4491555541526447</v>
+        <v>0.3065789091231675</v>
       </c>
       <c r="H8" t="n">
-        <v>2.089314515208172</v>
+        <v>1.924063681974854</v>
       </c>
       <c r="I8" t="n">
-        <v>0.7838460014808581</v>
+        <v>0.9446863178773914</v>
       </c>
       <c r="J8" t="n">
-        <v>1.820385708809586</v>
+        <v>0.6425398593718952</v>
       </c>
       <c r="K8" t="n">
-        <v>1.302115424935361</v>
+        <v>0.7936133729694913</v>
       </c>
       <c r="L8" t="n">
-        <v>0.689825677923688</v>
+        <v>2.215255286104952</v>
       </c>
       <c r="M8" t="n">
-        <v>0.670190684919333</v>
+        <v>0.5536956827745432</v>
       </c>
       <c r="N8" t="n">
-        <v>1.039318101291884</v>
+        <v>1.026837251574459</v>
       </c>
       <c r="O8" t="n">
-        <v>0.6987220898623216</v>
+        <v>0.5772676542983289</v>
       </c>
       <c r="P8" t="n">
-        <v>131.6007720109282</v>
+        <v>132.3645602089263</v>
       </c>
       <c r="Q8" t="n">
-        <v>210.8277006273613</v>
+        <v>211.5914888253593</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_8_7_7</t>
+          <t>model_8_7_2</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9313658499229862</v>
+        <v>0.9450950462536584</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6841967598856757</v>
+        <v>0.7117645452717145</v>
       </c>
       <c r="D9" t="n">
-        <v>0.5521426265398528</v>
+        <v>0.8657072563543368</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6980843524070076</v>
+        <v>0.9127183017562446</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7829769897829105</v>
+        <v>0.9429073710295806</v>
       </c>
       <c r="G9" t="n">
-        <v>0.4589568775961933</v>
+        <v>0.3671496785158525</v>
       </c>
       <c r="H9" t="n">
-        <v>2.111777720784698</v>
+        <v>1.927431812970277</v>
       </c>
       <c r="I9" t="n">
-        <v>0.8273997099780026</v>
+        <v>0.3928400394810994</v>
       </c>
       <c r="J9" t="n">
-        <v>1.8760595884786</v>
+        <v>0.4506255037559012</v>
       </c>
       <c r="K9" t="n">
-        <v>1.351729649228301</v>
+        <v>0.4217327493692453</v>
       </c>
       <c r="L9" t="n">
-        <v>0.6569077517331843</v>
+        <v>2.332180404805216</v>
       </c>
       <c r="M9" t="n">
-        <v>0.6774635618217362</v>
+        <v>0.6059287734675195</v>
       </c>
       <c r="N9" t="n">
-        <v>1.040176087849959</v>
+        <v>1.03213948511981</v>
       </c>
       <c r="O9" t="n">
-        <v>0.7063045881913907</v>
+        <v>0.631724415799509</v>
       </c>
       <c r="P9" t="n">
-        <v>131.5575980438544</v>
+        <v>132.0039713414112</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.7845266602875</v>
+        <v>211.2308999578443</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_8_7_8</t>
+          <t>model_8_7_10</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9299719399649367</v>
+        <v>0.9535158648228205</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6810930332167282</v>
+        <v>0.7108498657374995</v>
       </c>
       <c r="D10" t="n">
-        <v>0.5312328835092588</v>
+        <v>0.654677208918208</v>
       </c>
       <c r="E10" t="n">
-        <v>0.6899470024129553</v>
+        <v>0.8709139003500832</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7758168460760879</v>
+        <v>0.8865131710494418</v>
       </c>
       <c r="G10" t="n">
-        <v>0.4682779599040359</v>
+        <v>0.3108396259695607</v>
       </c>
       <c r="H10" t="n">
-        <v>2.132532355311298</v>
+        <v>1.933548279227285</v>
       </c>
       <c r="I10" t="n">
-        <v>0.8660296764460385</v>
+        <v>1.010155986091326</v>
       </c>
       <c r="J10" t="n">
-        <v>1.926623888814992</v>
+        <v>0.6664568844682166</v>
       </c>
       <c r="K10" t="n">
-        <v>1.396326664685629</v>
+        <v>0.8383063322467369</v>
       </c>
       <c r="L10" t="n">
-        <v>0.6269885875989233</v>
+        <v>2.199681665730462</v>
       </c>
       <c r="M10" t="n">
-        <v>0.6843083807056844</v>
+        <v>0.5575299328014243</v>
       </c>
       <c r="N10" t="n">
-        <v>1.040992035142476</v>
+        <v>1.027210225469569</v>
       </c>
       <c r="O10" t="n">
-        <v>0.7134408051859572</v>
+        <v>0.5812651362868463</v>
       </c>
       <c r="P10" t="n">
-        <v>131.5173864559061</v>
+        <v>132.3369563438622</v>
       </c>
       <c r="Q10" t="n">
-        <v>210.7443150723392</v>
+        <v>211.5638849602952</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_8_7_9</t>
+          <t>model_8_7_11</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9286638394914699</v>
+        <v>0.9527417854175309</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6782447686257769</v>
+        <v>0.7093792611238287</v>
       </c>
       <c r="D11" t="n">
-        <v>0.5127171651145864</v>
+        <v>0.6338939776190873</v>
       </c>
       <c r="E11" t="n">
-        <v>0.6826006215565348</v>
+        <v>0.8665907202165999</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7694062198827971</v>
+        <v>0.8808871751376551</v>
       </c>
       <c r="G11" t="n">
-        <v>0.477025233793357</v>
+        <v>0.3160158985170407</v>
       </c>
       <c r="H11" t="n">
-        <v>2.151578713746042</v>
+        <v>1.943382219050414</v>
       </c>
       <c r="I11" t="n">
-        <v>0.9002367721368488</v>
+        <v>1.070952163028732</v>
       </c>
       <c r="J11" t="n">
-        <v>1.972273222846472</v>
+        <v>0.6887769729252238</v>
       </c>
       <c r="K11" t="n">
-        <v>1.436255303989465</v>
+        <v>0.8798645292785682</v>
       </c>
       <c r="L11" t="n">
-        <v>0.5998246282068523</v>
+        <v>2.185069490411435</v>
       </c>
       <c r="M11" t="n">
-        <v>0.6906701338507095</v>
+        <v>0.5621529138206443</v>
       </c>
       <c r="N11" t="n">
-        <v>1.041757752492798</v>
+        <v>1.027663345121445</v>
       </c>
       <c r="O11" t="n">
-        <v>0.7200733913330105</v>
+        <v>0.5860849271789444</v>
       </c>
       <c r="P11" t="n">
-        <v>131.4803717769174</v>
+        <v>132.3039255097961</v>
       </c>
       <c r="Q11" t="n">
-        <v>210.7073003933505</v>
+        <v>211.5308541262291</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_8_7_10</t>
+          <t>model_8_7_12</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9274487816250865</v>
+        <v>0.9518850564169803</v>
       </c>
       <c r="C12" t="n">
-        <v>0.675644783552686</v>
+        <v>0.7079022224936276</v>
       </c>
       <c r="D12" t="n">
-        <v>0.4963370565406187</v>
+        <v>0.6146913362565531</v>
       </c>
       <c r="E12" t="n">
-        <v>0.6760010275797228</v>
+        <v>0.8625813397602676</v>
       </c>
       <c r="F12" t="n">
-        <v>0.7636850072632126</v>
+        <v>0.8756838096458258</v>
       </c>
       <c r="G12" t="n">
-        <v>0.48515033134069</v>
+        <v>0.3217448492885969</v>
       </c>
       <c r="H12" t="n">
-        <v>2.168964825901631</v>
+        <v>1.953259183171706</v>
       </c>
       <c r="I12" t="n">
-        <v>0.9304984087351243</v>
+        <v>1.127124717004569</v>
       </c>
       <c r="J12" t="n">
-        <v>2.0132821326495</v>
+        <v>0.7094769492574673</v>
       </c>
       <c r="K12" t="n">
-        <v>1.471889925035849</v>
+        <v>0.9183008331310181</v>
       </c>
       <c r="L12" t="n">
-        <v>0.5751738377842611</v>
+        <v>2.171462908559518</v>
       </c>
       <c r="M12" t="n">
-        <v>0.6965273371093844</v>
+        <v>0.5672255717865662</v>
       </c>
       <c r="N12" t="n">
-        <v>1.042469005877998</v>
+        <v>1.028164845024207</v>
       </c>
       <c r="O12" t="n">
-        <v>0.7261799478604893</v>
+        <v>0.5913735386963253</v>
       </c>
       <c r="P12" t="n">
-        <v>131.4465929490912</v>
+        <v>132.2679928821222</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.6735215655243</v>
+        <v>211.4949214985552</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_8_7_11</t>
+          <t>model_8_7_1</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9263289982664146</v>
+        <v>0.9393142541408421</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6732813884835714</v>
+        <v>0.7077125208764727</v>
       </c>
       <c r="D13" t="n">
-        <v>0.4818549255237567</v>
+        <v>0.892288984177307</v>
       </c>
       <c r="E13" t="n">
-        <v>0.6700943959616417</v>
+        <v>0.9174416935206029</v>
       </c>
       <c r="F13" t="n">
-        <v>0.7585907837052598</v>
+        <v>0.9498213320173498</v>
       </c>
       <c r="G13" t="n">
-        <v>0.4926383278162572</v>
+        <v>0.4058058619923549</v>
       </c>
       <c r="H13" t="n">
-        <v>2.184768859611234</v>
+        <v>1.954527718759116</v>
       </c>
       <c r="I13" t="n">
-        <v>0.9572536029404537</v>
+        <v>0.3150818023346154</v>
       </c>
       <c r="J13" t="n">
-        <v>2.049985075908838</v>
+        <v>0.426239168062637</v>
       </c>
       <c r="K13" t="n">
-        <v>1.503619339424646</v>
+        <v>0.3706605912117646</v>
       </c>
       <c r="L13" t="n">
-        <v>0.5528230723176152</v>
+        <v>2.343255603123168</v>
       </c>
       <c r="M13" t="n">
-        <v>0.7018819899500607</v>
+        <v>0.6370289334028361</v>
       </c>
       <c r="N13" t="n">
-        <v>1.04312448881966</v>
+        <v>1.035523363429751</v>
       </c>
       <c r="O13" t="n">
-        <v>0.7317625593582527</v>
+        <v>0.6641485739294783</v>
       </c>
       <c r="P13" t="n">
-        <v>131.4159599782875</v>
+        <v>131.8037608123478</v>
       </c>
       <c r="Q13" t="n">
-        <v>210.6428885947206</v>
+        <v>211.0306894287809</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_8_7_12</t>
+          <t>model_8_7_13</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9253033526250337</v>
+        <v>0.9509862009345323</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6711402215680021</v>
+        <v>0.7064511342352039</v>
       </c>
       <c r="D14" t="n">
-        <v>0.4690530179517894</v>
+        <v>0.5970216058132369</v>
       </c>
       <c r="E14" t="n">
-        <v>0.664824007606578</v>
+        <v>0.8588811030944687</v>
       </c>
       <c r="F14" t="n">
-        <v>0.7540631352032716</v>
+        <v>0.8708920085881706</v>
       </c>
       <c r="G14" t="n">
-        <v>0.499496824942835</v>
+        <v>0.3277555000385747</v>
       </c>
       <c r="H14" t="n">
-        <v>2.199086852634813</v>
+        <v>1.962962617037432</v>
       </c>
       <c r="I14" t="n">
-        <v>0.9809046473128504</v>
+        <v>1.178813121132254</v>
       </c>
       <c r="J14" t="n">
-        <v>2.08273449677308</v>
+        <v>0.7285808512792293</v>
       </c>
       <c r="K14" t="n">
-        <v>1.531819836299606</v>
+        <v>0.9536969862057418</v>
       </c>
       <c r="L14" t="n">
-        <v>0.53257875994043</v>
+        <v>2.158862586324628</v>
       </c>
       <c r="M14" t="n">
-        <v>0.7067508931319684</v>
+        <v>0.5724993450114809</v>
       </c>
       <c r="N14" t="n">
-        <v>1.043724866756078</v>
+        <v>1.028691004331005</v>
       </c>
       <c r="O14" t="n">
-        <v>0.7368387418286333</v>
+        <v>0.5968718273656402</v>
       </c>
       <c r="P14" t="n">
-        <v>131.3883080747691</v>
+        <v>132.2309747505566</v>
       </c>
       <c r="Q14" t="n">
-        <v>210.6152366912021</v>
+        <v>211.4579033669896</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>model_8_7_14</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.9500751299502471</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.7050485673308253</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.5808164930521343</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.8554803363828887</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.8664948779074735</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.3338478359055867</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1.972341588385238</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1.226217150300533</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.7461386239096636</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.9861777817961336</v>
+      </c>
+      <c r="L15" t="n">
+        <v>2.147244239642359</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.5777956696840041</v>
+      </c>
+      <c r="N15" t="n">
+        <v>1.029224314175465</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0.6023936275443761</v>
+      </c>
+      <c r="P15" t="n">
+        <v>132.1941399418701</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>211.4210685583031</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>model_8_7_15</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.9491734085744072</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.703709425901071</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.565995574843989</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.8523645229441132</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.8624713583635596</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.3398776508978725</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1.981296433292185</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1.269572062382724</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.7622252151276349</v>
+      </c>
+      <c r="K16" t="n">
+        <v>1.015898780636017</v>
+      </c>
+      <c r="L16" t="n">
+        <v>2.136575791010304</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.5829902665550022</v>
+      </c>
+      <c r="N16" t="n">
+        <v>1.029752151078396</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.6078093691584706</v>
+      </c>
+      <c r="P16" t="n">
+        <v>132.1583391528679</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>211.385267769301</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>model_8_7_16</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.9482963879619487</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.7024430524071754</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.552471086892947</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.8495178312708505</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.8587986242167344</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.3457422917716915</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1.989764678676979</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1.309134590010185</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.7769223612088126</v>
+      </c>
+      <c r="K17" t="n">
+        <v>1.043028592266261</v>
+      </c>
+      <c r="L17" t="n">
+        <v>2.12681208301545</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.5879985474231135</v>
+      </c>
+      <c r="N17" t="n">
+        <v>1.030265528997884</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.6130308629117081</v>
+      </c>
+      <c r="P17" t="n">
+        <v>132.1241232058217</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>211.3510518222547</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>model_8_7_0</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.9313457090803443</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.7015927134575362</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.9168395205484312</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.9215537789875271</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.956119507930107</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.4590915595036795</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1.995450899148667</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.2432653108735292</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.4050089374151412</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.3241371241443352</v>
+      </c>
+      <c r="L18" t="n">
+        <v>2.349678720021099</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.6775629561182337</v>
+      </c>
+      <c r="N18" t="n">
+        <v>1.040187877611506</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0.7064082139088649</v>
+      </c>
+      <c r="P18" t="n">
+        <v>131.5570112255428</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>210.7839398419759</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>model_8_7_17</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.9474545665992455</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.7012544445601843</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.5401519549279674</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.8469231342749495</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.8554526324752374</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.3513715551003188</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1.997712904822844</v>
+      </c>
+      <c r="I19" t="n">
+        <v>1.345171148323898</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.7903184873658272</v>
+      </c>
+      <c r="K19" t="n">
+        <v>1.067744817844863</v>
+      </c>
+      <c r="L19" t="n">
+        <v>2.117887575077418</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.5927660205345097</v>
+      </c>
+      <c r="N19" t="n">
+        <v>1.03075830247849</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.6180012972234862</v>
+      </c>
+      <c r="P19" t="n">
+        <v>132.0918221077162</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>211.3187507241492</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>model_8_7_18</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.9466549396678769</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.7001458988629177</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.5289511477965606</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.8445625137468602</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.8524098605644738</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.3567186640723242</v>
+      </c>
+      <c r="H20" t="n">
+        <v>2.005125755004849</v>
+      </c>
+      <c r="I20" t="n">
+        <v>1.37793632532655</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.802506103281319</v>
+      </c>
+      <c r="K20" t="n">
+        <v>1.090221214303935</v>
+      </c>
+      <c r="L20" t="n">
+        <v>2.109757434835276</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.5972592938350346</v>
+      </c>
+      <c r="N20" t="n">
+        <v>1.031226376779779</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0.6226858584707724</v>
+      </c>
+      <c r="P20" t="n">
+        <v>132.0616157274031</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>211.2885443438361</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>model_8_7_19</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.9459013580597184</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.6991170160066393</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.5187783889469926</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.8424177259150476</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.8496460734949314</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.361757867756004</v>
+      </c>
+      <c r="H21" t="n">
+        <v>2.012005899402353</v>
+      </c>
+      <c r="I21" t="n">
+        <v>1.407694202629588</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.8135793994775145</v>
+      </c>
+      <c r="K21" t="n">
+        <v>1.110636801053551</v>
+      </c>
+      <c r="L21" t="n">
+        <v>2.102358618357338</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.6014631058976136</v>
+      </c>
+      <c r="N21" t="n">
+        <v>1.03166749772114</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.6270686355159462</v>
+      </c>
+      <c r="P21" t="n">
+        <v>132.0335603291086</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>211.2604889455417</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>model_8_7_20</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.9451960133424218</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.6981661422677805</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.5095516217480727</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.8404719264992644</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.8471391371440445</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.3664745111283809</v>
+      </c>
+      <c r="H22" t="n">
+        <v>2.018364396472473</v>
+      </c>
+      <c r="I22" t="n">
+        <v>1.434684816510189</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.8236253410619289</v>
+      </c>
+      <c r="K22" t="n">
+        <v>1.129155078786059</v>
+      </c>
+      <c r="L22" t="n">
+        <v>2.09563484025381</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.6053713828125517</v>
+      </c>
+      <c r="N22" t="n">
+        <v>1.032080382433704</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0.6311432958704015</v>
+      </c>
+      <c r="P22" t="n">
+        <v>132.0076526135809</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>211.234581230014</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>model_8_7_21</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.9445392667618422</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.6972903280645369</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.501190037713625</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.838708010158315</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.8448670732960619</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.3708661785367565</v>
+      </c>
+      <c r="H23" t="n">
+        <v>2.024220970082316</v>
+      </c>
+      <c r="I23" t="n">
+        <v>1.459144552107549</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.832732240970129</v>
+      </c>
+      <c r="K23" t="n">
+        <v>1.145938396538839</v>
+      </c>
+      <c r="L23" t="n">
+        <v>2.089533985090927</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.6089878311893896</v>
+      </c>
+      <c r="N23" t="n">
+        <v>1.032464819456483</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0.6349137039417216</v>
+      </c>
+      <c r="P23" t="n">
+        <v>131.983827972394</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>211.210756588827</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>model_8_7_22</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.9439305956310425</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.6964860987300276</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.4936191512143943</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.8371109616772787</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.8428098715758394</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.3749363651910866</v>
+      </c>
+      <c r="H24" t="n">
+        <v>2.029598855345315</v>
+      </c>
+      <c r="I24" t="n">
+        <v>1.481291298614659</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.840977621052901</v>
+      </c>
+      <c r="K24" t="n">
+        <v>1.16113456727265</v>
+      </c>
+      <c r="L24" t="n">
+        <v>2.084004572466156</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.6123204758874936</v>
+      </c>
+      <c r="N24" t="n">
+        <v>1.032821114752561</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0.6383882262241495</v>
+      </c>
+      <c r="P24" t="n">
+        <v>131.9619979204699</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>211.188926536903</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>model_8_7_23</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.9433686075244003</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.6957493198723048</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.4867689574886357</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.8356660923035992</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.8409485867173706</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.3786943822479203</v>
+      </c>
+      <c r="H25" t="n">
+        <v>2.034525698959463</v>
+      </c>
+      <c r="I25" t="n">
+        <v>1.501329837560445</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.8484373176728895</v>
+      </c>
+      <c r="K25" t="n">
+        <v>1.174883536182946</v>
+      </c>
+      <c r="L25" t="n">
+        <v>2.078989889596998</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.615381493260823</v>
+      </c>
+      <c r="N25" t="n">
+        <v>1.033150083400351</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0.641579557444241</v>
+      </c>
+      <c r="P25" t="n">
+        <v>131.9420515569829</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>211.168980173416</v>
       </c>
     </row>
   </sheetData>

--- a/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_8_7.xlsx
+++ b/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_8_7.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,1321 +518,1376 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_8_7_5</t>
+          <t>model_8_7_9</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9535213928605935</v>
+        <v>0.9656991183179787</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7157882487587514</v>
+        <v>0.7295116308352495</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7809435936143386</v>
+        <v>0.8311523808366292</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8965726855829347</v>
+        <v>0.946720931469601</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9204814036585016</v>
+        <v>0.917794227887099</v>
       </c>
       <c r="G2" t="n">
-        <v>0.3108026599555185</v>
+        <v>0.2293701537487141</v>
       </c>
       <c r="H2" t="n">
-        <v>1.900525289225011</v>
+        <v>1.808756970089104</v>
       </c>
       <c r="I2" t="n">
-        <v>0.6407950645508308</v>
+        <v>0.6224052855123405</v>
       </c>
       <c r="J2" t="n">
-        <v>0.5339834879375133</v>
+        <v>0.5829719620651035</v>
       </c>
       <c r="K2" t="n">
-        <v>0.5873892456145012</v>
+        <v>0.6026884800891043</v>
       </c>
       <c r="L2" t="n">
-        <v>2.284304951139477</v>
+        <v>1.812473590970747</v>
       </c>
       <c r="M2" t="n">
-        <v>0.5574967802198668</v>
+        <v>0.4789260420448173</v>
       </c>
       <c r="N2" t="n">
-        <v>1.027206989545018</v>
+        <v>1.020078564887037</v>
       </c>
       <c r="O2" t="n">
-        <v>0.5812305723312566</v>
+        <v>0.4993149151682451</v>
       </c>
       <c r="P2" t="n">
-        <v>132.3371942042197</v>
+        <v>132.944836376935</v>
       </c>
       <c r="Q2" t="n">
-        <v>211.5641228206527</v>
+        <v>212.171764993368</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_8_7_6</t>
+          <t>model_8_7_10</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9544056935872191</v>
+        <v>0.9628784242861858</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7154630600129991</v>
+        <v>0.7294002861016242</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7531766583995245</v>
+        <v>0.8041692417817585</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8910497802432117</v>
+        <v>0.9410701617118595</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9130533132121929</v>
+        <v>0.9067940246472695</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3048893369247427</v>
+        <v>0.2482321477274148</v>
       </c>
       <c r="H3" t="n">
-        <v>1.902699827865213</v>
+        <v>1.809501532835552</v>
       </c>
       <c r="I3" t="n">
-        <v>0.722020331307148</v>
+        <v>0.7218704035322534</v>
       </c>
       <c r="J3" t="n">
-        <v>0.5624976214957121</v>
+        <v>0.6448018780849207</v>
       </c>
       <c r="K3" t="n">
-        <v>0.6422591835202911</v>
+        <v>0.6833360502156747</v>
       </c>
       <c r="L3" t="n">
-        <v>2.266540141288291</v>
+        <v>1.9030040841144</v>
       </c>
       <c r="M3" t="n">
-        <v>0.5521678521289906</v>
+        <v>0.4982290113265332</v>
       </c>
       <c r="N3" t="n">
-        <v>1.026689350095287</v>
+        <v>1.021729702856867</v>
       </c>
       <c r="O3" t="n">
-        <v>0.5756747807391498</v>
+        <v>0.5194396518149387</v>
       </c>
       <c r="P3" t="n">
-        <v>132.3756127959366</v>
+        <v>132.7867817822407</v>
       </c>
       <c r="Q3" t="n">
-        <v>211.6025414123696</v>
+        <v>212.0137103986738</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_8_7_4</t>
+          <t>model_8_7_8</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9518527472926179</v>
+        <v>0.9683192782472685</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7154556442536054</v>
+        <v>0.7291482298382752</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8093348341588573</v>
+        <v>0.8574776531366387</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9021188304755481</v>
+        <v>0.9527598024161263</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9280411908274352</v>
+        <v>0.9289186307035431</v>
       </c>
       <c r="G4" t="n">
-        <v>0.3219609005519773</v>
+        <v>0.2118491322368259</v>
       </c>
       <c r="H4" t="n">
-        <v>1.902749417082425</v>
+        <v>1.811187034229178</v>
       </c>
       <c r="I4" t="n">
-        <v>0.5577435477402555</v>
+        <v>0.5253651927750896</v>
       </c>
       <c r="J4" t="n">
-        <v>0.5053493712048458</v>
+        <v>0.5168954982405682</v>
       </c>
       <c r="K4" t="n">
-        <v>0.5315464882411707</v>
+        <v>0.521130345507829</v>
       </c>
       <c r="L4" t="n">
-        <v>2.301663081025687</v>
+        <v>1.708981439531118</v>
       </c>
       <c r="M4" t="n">
-        <v>0.567415985456858</v>
+        <v>0.460270716249498</v>
       </c>
       <c r="N4" t="n">
-        <v>1.02818375768237</v>
+        <v>1.018544812733306</v>
       </c>
       <c r="O4" t="n">
-        <v>0.591572058670772</v>
+        <v>0.4798653935319709</v>
       </c>
       <c r="P4" t="n">
-        <v>132.2666503353356</v>
+        <v>133.1037617960774</v>
       </c>
       <c r="Q4" t="n">
-        <v>211.4935789517686</v>
+        <v>212.3306904125104</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_8_7_7</t>
+          <t>model_8_7_11</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9547064626143994</v>
+        <v>0.959975450950364</v>
       </c>
       <c r="C5" t="n">
-        <v>0.714674321812358</v>
+        <v>0.7289550528353741</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7264390126609543</v>
+        <v>0.777300603374389</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8856569849781336</v>
+        <v>0.9358213898552655</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9058745564269983</v>
+        <v>0.8961226040734102</v>
       </c>
       <c r="G5" t="n">
-        <v>0.3028780930550738</v>
+        <v>0.2676443437910189</v>
       </c>
       <c r="H5" t="n">
-        <v>1.907974123844705</v>
+        <v>1.812478809737077</v>
       </c>
       <c r="I5" t="n">
-        <v>0.8002346675581504</v>
+        <v>0.8209134498134443</v>
       </c>
       <c r="J5" t="n">
-        <v>0.5903400115027385</v>
+        <v>0.7022331904571493</v>
       </c>
       <c r="K5" t="n">
-        <v>0.6952873395304444</v>
+        <v>0.7615731627777687</v>
       </c>
       <c r="L5" t="n">
-        <v>2.248888062379519</v>
+        <v>1.982194030586221</v>
       </c>
       <c r="M5" t="n">
-        <v>0.5503436136225021</v>
+        <v>0.5173435452298781</v>
       </c>
       <c r="N5" t="n">
-        <v>1.026513290176937</v>
+        <v>1.023429004321738</v>
       </c>
       <c r="O5" t="n">
-        <v>0.5737728806227458</v>
+        <v>0.539367930999089</v>
       </c>
       <c r="P5" t="n">
-        <v>132.3888497751641</v>
+        <v>132.6361925104446</v>
       </c>
       <c r="Q5" t="n">
-        <v>211.6157783915971</v>
+        <v>211.8631211268777</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_8_7_3</t>
+          <t>model_8_7_12</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9491478346883815</v>
+        <v>0.9570747807056742</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7142178112122982</v>
+        <v>0.7282818411001919</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8378101401905754</v>
+        <v>0.7510840892496825</v>
       </c>
       <c r="E6" t="n">
-        <v>0.907553429413632</v>
+        <v>0.9309730969546468</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9355786786554214</v>
+        <v>0.8859139420116058</v>
       </c>
       <c r="G6" t="n">
-        <v>0.3400486635914839</v>
+        <v>0.2870411390736172</v>
       </c>
       <c r="H6" t="n">
-        <v>1.911026812329343</v>
+        <v>1.816980579710095</v>
       </c>
       <c r="I6" t="n">
-        <v>0.4744461182436038</v>
+        <v>0.917552638685502</v>
       </c>
       <c r="J6" t="n">
-        <v>0.4772911535777554</v>
+        <v>0.755282519263026</v>
       </c>
       <c r="K6" t="n">
-        <v>0.4758684519979833</v>
+        <v>0.8364175789742641</v>
       </c>
       <c r="L6" t="n">
-        <v>2.317926540376393</v>
+        <v>2.051514058882809</v>
       </c>
       <c r="M6" t="n">
-        <v>0.5831369166769361</v>
+        <v>0.5357622038494477</v>
       </c>
       <c r="N6" t="n">
-        <v>1.029767121158021</v>
+        <v>1.025126957635703</v>
       </c>
       <c r="O6" t="n">
-        <v>0.6079622624797028</v>
+        <v>0.5585707100479732</v>
       </c>
       <c r="P6" t="n">
-        <v>132.1573330868071</v>
+        <v>132.4962594635501</v>
       </c>
       <c r="Q6" t="n">
-        <v>211.3842617032401</v>
+        <v>211.7231880799831</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_8_7_8</t>
+          <t>model_8_7_7</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9545812608316864</v>
+        <v>0.9705749594967055</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7135713281552336</v>
+        <v>0.7281228747031935</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7010078764932228</v>
+        <v>0.8820495924531908</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8804711750525702</v>
+        <v>0.9591489878167355</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8990268012882064</v>
+        <v>0.9398636763500525</v>
       </c>
       <c r="G7" t="n">
-        <v>0.3037153179525776</v>
+        <v>0.1967653813353838</v>
       </c>
       <c r="H7" t="n">
-        <v>1.915349847508715</v>
+        <v>1.818043588738797</v>
       </c>
       <c r="I7" t="n">
-        <v>0.8746271348275723</v>
+        <v>0.4347882276885229</v>
       </c>
       <c r="J7" t="n">
-        <v>0.6171137596894791</v>
+        <v>0.4469859436682005</v>
       </c>
       <c r="K7" t="n">
-        <v>0.7458704472585257</v>
+        <v>0.4408871611710757</v>
       </c>
       <c r="L7" t="n">
-        <v>2.231712282534025</v>
+        <v>1.593685367259396</v>
       </c>
       <c r="M7" t="n">
-        <v>0.551103727035644</v>
+        <v>0.4435824402919752</v>
       </c>
       <c r="N7" t="n">
-        <v>1.026586579025354</v>
+        <v>1.017224413953148</v>
       </c>
       <c r="O7" t="n">
-        <v>0.5745653536375369</v>
+        <v>0.4624666631174428</v>
       </c>
       <c r="P7" t="n">
-        <v>132.3833289408527</v>
+        <v>133.2514864353725</v>
       </c>
       <c r="Q7" t="n">
-        <v>211.6102575572858</v>
+        <v>212.4784150518055</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_8_7_9</t>
+          <t>model_8_7_13</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9541530285602998</v>
+        <v>0.9542358759363572</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7122682283397832</v>
+        <v>0.7274600688860249</v>
       </c>
       <c r="D8" t="n">
-        <v>0.677058077685134</v>
+        <v>0.7258809151265991</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8755463912986564</v>
+        <v>0.9265142274557966</v>
       </c>
       <c r="F8" t="n">
-        <v>0.892563539548028</v>
+        <v>0.8762506257238412</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3065789091231675</v>
+        <v>0.3060249083379946</v>
       </c>
       <c r="H8" t="n">
-        <v>1.924063681974854</v>
+        <v>1.822475774290144</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9446863178773914</v>
+        <v>1.01045645849428</v>
       </c>
       <c r="J8" t="n">
-        <v>0.6425398593718952</v>
+        <v>0.8040708327984603</v>
       </c>
       <c r="K8" t="n">
-        <v>0.7936133729694913</v>
+        <v>0.9072638134466382</v>
       </c>
       <c r="L8" t="n">
-        <v>2.215255286104952</v>
+        <v>2.112268607072172</v>
       </c>
       <c r="M8" t="n">
-        <v>0.5536956827745432</v>
+        <v>0.5531951810509511</v>
       </c>
       <c r="N8" t="n">
-        <v>1.026837251574459</v>
+        <v>1.026788755549449</v>
       </c>
       <c r="O8" t="n">
-        <v>0.5772676542983289</v>
+        <v>0.5767458451801822</v>
       </c>
       <c r="P8" t="n">
-        <v>132.3645602089263</v>
+        <v>132.3681775610903</v>
       </c>
       <c r="Q8" t="n">
-        <v>211.5914888253593</v>
+        <v>211.5951061775234</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_8_7_2</t>
+          <t>model_8_7_14</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9450950462536584</v>
+        <v>0.9514990414200247</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7117645452717145</v>
+        <v>0.7265489037329188</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8657072563543368</v>
+        <v>0.7019226804693042</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9127183017562446</v>
+        <v>0.9224264995827518</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9429073710295806</v>
+        <v>0.8671772831680531</v>
       </c>
       <c r="G9" t="n">
-        <v>0.3671496785158525</v>
+        <v>0.3243261333506737</v>
       </c>
       <c r="H9" t="n">
-        <v>1.927431812970277</v>
+        <v>1.828568739864493</v>
       </c>
       <c r="I9" t="n">
-        <v>0.3928400394810994</v>
+        <v>1.098771188403603</v>
       </c>
       <c r="J9" t="n">
-        <v>0.4506255037559012</v>
+        <v>0.8487981676462431</v>
       </c>
       <c r="K9" t="n">
-        <v>0.4217327493692453</v>
+        <v>0.973784678024923</v>
       </c>
       <c r="L9" t="n">
-        <v>2.332180404805216</v>
+        <v>2.165599807486167</v>
       </c>
       <c r="M9" t="n">
-        <v>0.6059287734675195</v>
+        <v>0.5694963857222218</v>
       </c>
       <c r="N9" t="n">
-        <v>1.03213948511981</v>
+        <v>1.028390805022425</v>
       </c>
       <c r="O9" t="n">
-        <v>0.631724415799509</v>
+        <v>0.5937410258824547</v>
       </c>
       <c r="P9" t="n">
-        <v>132.0039713414112</v>
+        <v>132.2520113700811</v>
       </c>
       <c r="Q9" t="n">
-        <v>211.2308999578443</v>
+        <v>211.4789399865141</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_8_7_10</t>
+          <t>model_8_7_6</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9535158648228205</v>
+        <v>0.9722413870447666</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7108498657374995</v>
+        <v>0.7261875096095158</v>
       </c>
       <c r="D10" t="n">
-        <v>0.654677208918208</v>
+        <v>0.9033443195677849</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8709139003500832</v>
+        <v>0.9658132662466175</v>
       </c>
       <c r="F10" t="n">
-        <v>0.8865131710494418</v>
+        <v>0.9501901629940847</v>
       </c>
       <c r="G10" t="n">
-        <v>0.3108396259695607</v>
+        <v>0.185621972648306</v>
       </c>
       <c r="H10" t="n">
-        <v>1.933548279227285</v>
+        <v>1.830985384031756</v>
       </c>
       <c r="I10" t="n">
-        <v>1.010155986091326</v>
+        <v>0.3562917065333014</v>
       </c>
       <c r="J10" t="n">
-        <v>0.6664568844682166</v>
+        <v>0.3740663604401316</v>
       </c>
       <c r="K10" t="n">
-        <v>0.8383063322467369</v>
+        <v>0.3651789185478614</v>
       </c>
       <c r="L10" t="n">
-        <v>2.199681665730462</v>
+        <v>1.476600961346894</v>
       </c>
       <c r="M10" t="n">
-        <v>0.5575299328014243</v>
+        <v>0.4308386851807832</v>
       </c>
       <c r="N10" t="n">
-        <v>1.027210225469569</v>
+        <v>1.016248944168917</v>
       </c>
       <c r="O10" t="n">
-        <v>0.5812651362868463</v>
+        <v>0.4491803799679576</v>
       </c>
       <c r="P10" t="n">
-        <v>132.3369563438622</v>
+        <v>133.368086157047</v>
       </c>
       <c r="Q10" t="n">
-        <v>211.5638849602952</v>
+        <v>212.5950147734801</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_8_7_11</t>
+          <t>model_8_7_15</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9527417854175309</v>
+        <v>0.9488908956026034</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7093792611238287</v>
+        <v>0.7255920970457643</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6338939776190873</v>
+        <v>0.6793462087967106</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8665907202165999</v>
+        <v>0.9186891860245424</v>
       </c>
       <c r="F11" t="n">
-        <v>0.8808871751376551</v>
+        <v>0.8587127512749031</v>
       </c>
       <c r="G11" t="n">
-        <v>0.3160158985170407</v>
+        <v>0.3417668164411776</v>
       </c>
       <c r="H11" t="n">
-        <v>1.943382219050414</v>
+        <v>1.834966910587185</v>
       </c>
       <c r="I11" t="n">
-        <v>1.070952163028732</v>
+        <v>1.181992470213007</v>
       </c>
       <c r="J11" t="n">
-        <v>0.6887769729252238</v>
+        <v>0.8896913190841051</v>
       </c>
       <c r="K11" t="n">
-        <v>0.8798645292785682</v>
+        <v>1.035842070471065</v>
       </c>
       <c r="L11" t="n">
-        <v>2.185069490411435</v>
+        <v>2.212483513544246</v>
       </c>
       <c r="M11" t="n">
-        <v>0.5621529138206443</v>
+        <v>0.5846082589573788</v>
       </c>
       <c r="N11" t="n">
-        <v>1.027663345121445</v>
+        <v>1.029917524525305</v>
       </c>
       <c r="O11" t="n">
-        <v>0.5860849271789444</v>
+        <v>0.6094962428471223</v>
       </c>
       <c r="P11" t="n">
-        <v>132.3039255097961</v>
+        <v>132.1472531954763</v>
       </c>
       <c r="Q11" t="n">
-        <v>211.5308541262291</v>
+        <v>211.3741818119093</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_8_7_12</t>
+          <t>model_8_7_16</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9518850564169803</v>
+        <v>0.9464275604935104</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7079022224936276</v>
+        <v>0.7246218734320106</v>
       </c>
       <c r="D12" t="n">
-        <v>0.6146913362565531</v>
+        <v>0.6582183114593392</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8625813397602676</v>
+        <v>0.915279609591504</v>
       </c>
       <c r="F12" t="n">
-        <v>0.8756838096458258</v>
+        <v>0.8508569742168294</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3217448492885969</v>
+        <v>0.3582391496582977</v>
       </c>
       <c r="H12" t="n">
-        <v>1.953259183171706</v>
+        <v>1.841454800359825</v>
       </c>
       <c r="I12" t="n">
-        <v>1.127124717004569</v>
+        <v>1.259874024242019</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7094769492574673</v>
+        <v>0.9269984176840973</v>
       </c>
       <c r="K12" t="n">
-        <v>0.9183008331310181</v>
+        <v>1.093436400082698</v>
       </c>
       <c r="L12" t="n">
-        <v>2.171462908559518</v>
+        <v>2.253767653035374</v>
       </c>
       <c r="M12" t="n">
-        <v>0.5672255717865662</v>
+        <v>0.5985308259883511</v>
       </c>
       <c r="N12" t="n">
-        <v>1.028164845024207</v>
+        <v>1.031359476784287</v>
       </c>
       <c r="O12" t="n">
-        <v>0.5913735386963253</v>
+        <v>0.6240115223802899</v>
       </c>
       <c r="P12" t="n">
-        <v>132.2679928821222</v>
+        <v>132.0531089995987</v>
       </c>
       <c r="Q12" t="n">
-        <v>211.4949214985552</v>
+        <v>211.2800376160318</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_8_7_1</t>
+          <t>model_8_7_17</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9393142541408421</v>
+        <v>0.9441178185872713</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7077125208764727</v>
+        <v>0.7236613268427523</v>
       </c>
       <c r="D13" t="n">
-        <v>0.892288984177307</v>
+        <v>0.6385591523277614</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9174416935206029</v>
+        <v>0.9121746306867116</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9498213320173498</v>
+        <v>0.8435977550797262</v>
       </c>
       <c r="G13" t="n">
-        <v>0.4058058619923549</v>
+        <v>0.373684404420702</v>
       </c>
       <c r="H13" t="n">
-        <v>1.954527718759116</v>
+        <v>1.847877979825105</v>
       </c>
       <c r="I13" t="n">
-        <v>0.3150818023346154</v>
+        <v>1.332341522527459</v>
       </c>
       <c r="J13" t="n">
-        <v>0.426239168062637</v>
+        <v>0.9609726536125053</v>
       </c>
       <c r="K13" t="n">
-        <v>0.3706605912117646</v>
+        <v>1.146657088069982</v>
       </c>
       <c r="L13" t="n">
-        <v>2.343255603123168</v>
+        <v>2.290176658706379</v>
       </c>
       <c r="M13" t="n">
-        <v>0.6370289334028361</v>
+        <v>0.611297312623491</v>
       </c>
       <c r="N13" t="n">
-        <v>1.035523363429751</v>
+        <v>1.032711520826963</v>
       </c>
       <c r="O13" t="n">
-        <v>0.6641485739294783</v>
+        <v>0.6373215047817583</v>
       </c>
       <c r="P13" t="n">
-        <v>131.8037608123478</v>
+        <v>131.968687352494</v>
       </c>
       <c r="Q13" t="n">
-        <v>211.0306894287809</v>
+        <v>211.1956159689271</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_8_7_13</t>
+          <t>model_8_7_5</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9509862009345323</v>
+        <v>0.9730119578261526</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7064511342352039</v>
+        <v>0.7230133028484611</v>
       </c>
       <c r="D14" t="n">
-        <v>0.5970216058132369</v>
+        <v>0.9192656080292662</v>
       </c>
       <c r="E14" t="n">
-        <v>0.8588811030944687</v>
+        <v>0.9726213150467663</v>
       </c>
       <c r="F14" t="n">
-        <v>0.8708920085881706</v>
+        <v>0.9592730340981169</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3277555000385747</v>
+        <v>0.1804691622850256</v>
       </c>
       <c r="H14" t="n">
-        <v>1.962962617037432</v>
+        <v>1.852211319258807</v>
       </c>
       <c r="I14" t="n">
-        <v>1.178813121132254</v>
+        <v>0.2976027292193572</v>
       </c>
       <c r="J14" t="n">
-        <v>0.7285808512792293</v>
+        <v>0.2995736623443825</v>
       </c>
       <c r="K14" t="n">
-        <v>0.9536969862057418</v>
+        <v>0.2985881957818699</v>
       </c>
       <c r="L14" t="n">
-        <v>2.158862586324628</v>
+        <v>1.34315444542742</v>
       </c>
       <c r="M14" t="n">
-        <v>0.5724993450114809</v>
+        <v>0.4248166219500192</v>
       </c>
       <c r="N14" t="n">
-        <v>1.028691004331005</v>
+        <v>1.015797878345667</v>
       </c>
       <c r="O14" t="n">
-        <v>0.5968718273656402</v>
+        <v>0.4429019450380706</v>
       </c>
       <c r="P14" t="n">
-        <v>132.2309747505566</v>
+        <v>133.4243907237428</v>
       </c>
       <c r="Q14" t="n">
-        <v>211.4579033669896</v>
+        <v>212.6513193401758</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_8_7_14</t>
+          <t>model_8_7_18</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9500751299502471</v>
+        <v>0.9419644228200967</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7050485673308253</v>
+        <v>0.7227268540753561</v>
       </c>
       <c r="D15" t="n">
-        <v>0.5808164930521343</v>
+        <v>0.6203482376432621</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8554803363828887</v>
+        <v>0.9093510915890516</v>
       </c>
       <c r="F15" t="n">
-        <v>0.8664948779074735</v>
+        <v>0.8369126367885235</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3338478359055867</v>
+        <v>0.3880841718312742</v>
       </c>
       <c r="H15" t="n">
-        <v>1.972341588385238</v>
+        <v>1.854126803523536</v>
       </c>
       <c r="I15" t="n">
-        <v>1.226217150300533</v>
+        <v>1.399470509064603</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7461386239096636</v>
+        <v>0.9918674153478984</v>
       </c>
       <c r="K15" t="n">
-        <v>0.9861777817961336</v>
+        <v>1.195668777621506</v>
       </c>
       <c r="L15" t="n">
-        <v>2.147244239642359</v>
+        <v>2.322342902907327</v>
       </c>
       <c r="M15" t="n">
-        <v>0.5777956696840041</v>
+        <v>0.6229640212975981</v>
       </c>
       <c r="N15" t="n">
-        <v>1.029224314175465</v>
+        <v>1.03397204517848</v>
       </c>
       <c r="O15" t="n">
-        <v>0.6023936275443761</v>
+        <v>0.6494848893975386</v>
       </c>
       <c r="P15" t="n">
-        <v>132.1941399418701</v>
+        <v>131.893066050354</v>
       </c>
       <c r="Q15" t="n">
-        <v>211.4210685583031</v>
+        <v>211.119994666787</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_8_7_15</t>
+          <t>model_8_7_19</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9491734085744072</v>
+        <v>0.9399667490895608</v>
       </c>
       <c r="C16" t="n">
-        <v>0.703709425901071</v>
+        <v>0.7218296683961125</v>
       </c>
       <c r="D16" t="n">
-        <v>0.565995574843989</v>
+        <v>0.6035455922804153</v>
       </c>
       <c r="E16" t="n">
-        <v>0.8523645229441132</v>
+        <v>0.9067874103622898</v>
       </c>
       <c r="F16" t="n">
-        <v>0.8624713583635596</v>
+        <v>0.8307753881798834</v>
       </c>
       <c r="G16" t="n">
-        <v>0.3398776508978725</v>
+        <v>0.4014426252658098</v>
       </c>
       <c r="H16" t="n">
-        <v>1.981296433292185</v>
+        <v>1.860126288291798</v>
       </c>
       <c r="I16" t="n">
-        <v>1.269572062382724</v>
+        <v>1.46140833996944</v>
       </c>
       <c r="J16" t="n">
-        <v>0.7622252151276349</v>
+        <v>1.019918849355647</v>
       </c>
       <c r="K16" t="n">
-        <v>1.015898780636017</v>
+        <v>1.240663781509922</v>
       </c>
       <c r="L16" t="n">
-        <v>2.136575791010304</v>
+        <v>2.35079592488646</v>
       </c>
       <c r="M16" t="n">
-        <v>0.5829902665550022</v>
+        <v>0.6335950009791821</v>
       </c>
       <c r="N16" t="n">
-        <v>1.029752151078396</v>
+        <v>1.035141415167086</v>
       </c>
       <c r="O16" t="n">
-        <v>0.6078093691584706</v>
+        <v>0.6605684518933294</v>
       </c>
       <c r="P16" t="n">
-        <v>132.1583391528679</v>
+        <v>131.825381313527</v>
       </c>
       <c r="Q16" t="n">
-        <v>211.385267769301</v>
+        <v>211.0523099299601</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_8_7_16</t>
+          <t>model_8_7_20</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9482963879619487</v>
+        <v>0.9381205978724625</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7024430524071754</v>
+        <v>0.720977135508746</v>
       </c>
       <c r="D17" t="n">
-        <v>0.552471086892947</v>
+        <v>0.588091078794199</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8495178312708505</v>
+        <v>0.9044612644685929</v>
       </c>
       <c r="F17" t="n">
-        <v>0.8587986242167344</v>
+        <v>0.8251543852883129</v>
       </c>
       <c r="G17" t="n">
-        <v>0.3457422917716915</v>
+        <v>0.4137878469552908</v>
       </c>
       <c r="H17" t="n">
-        <v>1.989764678676979</v>
+        <v>1.865827179635171</v>
       </c>
       <c r="I17" t="n">
-        <v>1.309134590010185</v>
+        <v>1.518376693603943</v>
       </c>
       <c r="J17" t="n">
-        <v>0.7769223612088126</v>
+        <v>1.045371205658094</v>
       </c>
       <c r="K17" t="n">
-        <v>1.043028592266261</v>
+        <v>1.281873949631018</v>
       </c>
       <c r="L17" t="n">
-        <v>2.12681208301545</v>
+        <v>2.376002757538984</v>
       </c>
       <c r="M17" t="n">
-        <v>0.5879985474231135</v>
+        <v>0.6432634351144877</v>
       </c>
       <c r="N17" t="n">
-        <v>1.030265528997884</v>
+        <v>1.036222089050266</v>
       </c>
       <c r="O17" t="n">
-        <v>0.6130308629117081</v>
+        <v>0.6706484912861927</v>
       </c>
       <c r="P17" t="n">
-        <v>132.1241232058217</v>
+        <v>131.7648037669411</v>
       </c>
       <c r="Q17" t="n">
-        <v>211.3510518222547</v>
+        <v>210.9917323833741</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_8_7_0</t>
+          <t>model_8_7_21</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9313457090803443</v>
+        <v>0.9364202408027664</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7015927134575362</v>
+        <v>0.720173549841278</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9168395205484312</v>
+        <v>0.5739144568255778</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9215537789875271</v>
+        <v>0.9023529129478138</v>
       </c>
       <c r="F18" t="n">
-        <v>0.956119507930107</v>
+        <v>0.8200171371380574</v>
       </c>
       <c r="G18" t="n">
-        <v>0.4590915595036795</v>
+        <v>0.4251581425097733</v>
       </c>
       <c r="H18" t="n">
-        <v>1.995450899148667</v>
+        <v>1.8712007606937</v>
       </c>
       <c r="I18" t="n">
-        <v>0.2432653108735292</v>
+        <v>1.570634489643358</v>
       </c>
       <c r="J18" t="n">
-        <v>0.4050089374151412</v>
+        <v>1.068440487023068</v>
       </c>
       <c r="K18" t="n">
-        <v>0.3241371241443352</v>
+        <v>1.319537488333213</v>
       </c>
       <c r="L18" t="n">
-        <v>2.349678720021099</v>
+        <v>2.398368653093903</v>
       </c>
       <c r="M18" t="n">
-        <v>0.6775629561182337</v>
+        <v>0.6520415190076267</v>
       </c>
       <c r="N18" t="n">
-        <v>1.040187877611506</v>
+        <v>1.037217420017893</v>
       </c>
       <c r="O18" t="n">
-        <v>0.7064082139088649</v>
+        <v>0.6798002763838014</v>
       </c>
       <c r="P18" t="n">
-        <v>131.5570112255428</v>
+        <v>131.7105881584936</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.7839398419759</v>
+        <v>210.9375167749266</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_8_7_17</t>
+          <t>model_8_7_22</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9474545665992455</v>
+        <v>0.9348588240442149</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7012544445601843</v>
+        <v>0.7194211441383378</v>
       </c>
       <c r="D19" t="n">
-        <v>0.5401519549279674</v>
+        <v>0.5609419519188078</v>
       </c>
       <c r="E19" t="n">
-        <v>0.8469231342749495</v>
+        <v>0.9004436877472503</v>
       </c>
       <c r="F19" t="n">
-        <v>0.8554526324752374</v>
+        <v>0.8153311815621211</v>
       </c>
       <c r="G19" t="n">
-        <v>0.3513715551003188</v>
+        <v>0.4355993435638699</v>
       </c>
       <c r="H19" t="n">
-        <v>1.997712904822844</v>
+        <v>1.876232101093771</v>
       </c>
       <c r="I19" t="n">
-        <v>1.345171148323898</v>
+        <v>1.6184536751333</v>
       </c>
       <c r="J19" t="n">
-        <v>0.7903184873658272</v>
+        <v>1.089330956618301</v>
       </c>
       <c r="K19" t="n">
-        <v>1.067744817844863</v>
+        <v>1.353892392754612</v>
       </c>
       <c r="L19" t="n">
-        <v>2.117887575077418</v>
+        <v>2.418233794671725</v>
       </c>
       <c r="M19" t="n">
-        <v>0.5927660205345097</v>
+        <v>0.6599995026997141</v>
       </c>
       <c r="N19" t="n">
-        <v>1.03075830247849</v>
+        <v>1.038131420071679</v>
       </c>
       <c r="O19" t="n">
-        <v>0.6180012972234862</v>
+        <v>0.6880970479169581</v>
       </c>
       <c r="P19" t="n">
-        <v>132.0918221077162</v>
+        <v>131.6620647897889</v>
       </c>
       <c r="Q19" t="n">
-        <v>211.3187507241492</v>
+        <v>210.888993406222</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_8_7_18</t>
+          <t>model_8_7_23</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9466549396678769</v>
+        <v>0.9334283028528114</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7001458988629177</v>
+        <v>0.7187204074177435</v>
       </c>
       <c r="D20" t="n">
-        <v>0.5289511477965606</v>
+        <v>0.5490933730260696</v>
       </c>
       <c r="E20" t="n">
-        <v>0.8445625137468602</v>
+        <v>0.8987157509382466</v>
       </c>
       <c r="F20" t="n">
-        <v>0.8524098605644738</v>
+        <v>0.8110631108966748</v>
       </c>
       <c r="G20" t="n">
-        <v>0.3567186640723242</v>
+        <v>0.4451652453577297</v>
       </c>
       <c r="H20" t="n">
-        <v>2.005125755004849</v>
+        <v>1.880917930770982</v>
       </c>
       <c r="I20" t="n">
-        <v>1.37793632532655</v>
+        <v>1.66212984993038</v>
       </c>
       <c r="J20" t="n">
-        <v>0.802506103281319</v>
+        <v>1.10823779451271</v>
       </c>
       <c r="K20" t="n">
-        <v>1.090221214303935</v>
+        <v>1.385183589907264</v>
       </c>
       <c r="L20" t="n">
-        <v>2.109757434835276</v>
+        <v>2.435901953340162</v>
       </c>
       <c r="M20" t="n">
-        <v>0.5972592938350346</v>
+        <v>0.6672070483423641</v>
       </c>
       <c r="N20" t="n">
-        <v>1.031226376779779</v>
+        <v>1.038968798330062</v>
       </c>
       <c r="O20" t="n">
-        <v>0.6226858584707724</v>
+        <v>0.695611433699292</v>
       </c>
       <c r="P20" t="n">
-        <v>132.0616157274031</v>
+        <v>131.6186194557244</v>
       </c>
       <c r="Q20" t="n">
-        <v>211.2885443438361</v>
+        <v>210.8455480721574</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_8_7_19</t>
+          <t>model_8_7_4</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9459013580597184</v>
+        <v>0.97247119880394</v>
       </c>
       <c r="C21" t="n">
-        <v>0.6991170160066393</v>
+        <v>0.7181660740790442</v>
       </c>
       <c r="D21" t="n">
-        <v>0.5187783889469926</v>
+        <v>0.9269608602386293</v>
       </c>
       <c r="E21" t="n">
-        <v>0.8424177259150476</v>
+        <v>0.9793577846558864</v>
       </c>
       <c r="F21" t="n">
-        <v>0.8496460734949314</v>
+        <v>0.9662345241387557</v>
       </c>
       <c r="G21" t="n">
-        <v>0.361757867756004</v>
+        <v>0.1840852203565273</v>
       </c>
       <c r="H21" t="n">
-        <v>2.012005899402353</v>
+        <v>1.884624760359334</v>
       </c>
       <c r="I21" t="n">
-        <v>1.407694202629588</v>
+        <v>0.2692365273611959</v>
       </c>
       <c r="J21" t="n">
-        <v>0.8135793994775145</v>
+        <v>0.2258641735386615</v>
       </c>
       <c r="K21" t="n">
-        <v>1.110636801053551</v>
+        <v>0.2475502972996838</v>
       </c>
       <c r="L21" t="n">
-        <v>2.102358618357338</v>
+        <v>1.191889509168695</v>
       </c>
       <c r="M21" t="n">
-        <v>0.6014631058976136</v>
+        <v>0.429051535781574</v>
       </c>
       <c r="N21" t="n">
-        <v>1.03166749772114</v>
+        <v>1.016114420212328</v>
       </c>
       <c r="O21" t="n">
-        <v>0.6270686355159462</v>
+        <v>0.4473171479189147</v>
       </c>
       <c r="P21" t="n">
-        <v>132.0335603291086</v>
+        <v>133.3847129489687</v>
       </c>
       <c r="Q21" t="n">
-        <v>211.2604889455417</v>
+        <v>212.6116415654018</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_8_7_20</t>
+          <t>model_8_7_24</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9451960133424218</v>
+        <v>0.9321206663920522</v>
       </c>
       <c r="C22" t="n">
-        <v>0.6981661422677805</v>
+        <v>0.7180707726841374</v>
       </c>
       <c r="D22" t="n">
-        <v>0.5095516217480727</v>
+        <v>0.5382917623235699</v>
       </c>
       <c r="E22" t="n">
-        <v>0.8404719264992644</v>
+        <v>0.8971530556334271</v>
       </c>
       <c r="F22" t="n">
-        <v>0.8471391371440445</v>
+        <v>0.8071814771520732</v>
       </c>
       <c r="G22" t="n">
-        <v>0.3664745111283809</v>
+        <v>0.4539094163919393</v>
       </c>
       <c r="H22" t="n">
-        <v>2.018364396472473</v>
+        <v>1.885262041225898</v>
       </c>
       <c r="I22" t="n">
-        <v>1.434684816510189</v>
+        <v>1.70194669559628</v>
       </c>
       <c r="J22" t="n">
-        <v>0.8236253410619289</v>
+        <v>1.125336583457206</v>
       </c>
       <c r="K22" t="n">
-        <v>1.129155078786059</v>
+        <v>1.413641639526743</v>
       </c>
       <c r="L22" t="n">
-        <v>2.09563484025381</v>
+        <v>2.451622994863591</v>
       </c>
       <c r="M22" t="n">
-        <v>0.6053713828125517</v>
+        <v>0.6737279988184692</v>
       </c>
       <c r="N22" t="n">
-        <v>1.032080382433704</v>
+        <v>1.039734244063189</v>
       </c>
       <c r="O22" t="n">
-        <v>0.6311432958704015</v>
+        <v>0.7024099945373933</v>
       </c>
       <c r="P22" t="n">
-        <v>132.0076526135809</v>
+        <v>131.579715248428</v>
       </c>
       <c r="Q22" t="n">
-        <v>211.234581230014</v>
+        <v>210.806643864861</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_8_7_21</t>
+          <t>model_8_7_3</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9445392667618422</v>
+        <v>0.9700611631589086</v>
       </c>
       <c r="C23" t="n">
-        <v>0.6972903280645369</v>
+        <v>0.7110755960696613</v>
       </c>
       <c r="D23" t="n">
-        <v>0.501190037713625</v>
+        <v>0.922605571100069</v>
       </c>
       <c r="E23" t="n">
-        <v>0.838708010158315</v>
+        <v>0.985685818340048</v>
       </c>
       <c r="F23" t="n">
-        <v>0.8448670732960619</v>
+        <v>0.9698617604397095</v>
       </c>
       <c r="G23" t="n">
-        <v>0.3708661785367565</v>
+        <v>0.2002011398120465</v>
       </c>
       <c r="H23" t="n">
-        <v>2.024220970082316</v>
+        <v>1.932038819456727</v>
       </c>
       <c r="I23" t="n">
-        <v>1.459144552107549</v>
+        <v>0.2852909733356553</v>
       </c>
       <c r="J23" t="n">
-        <v>0.832732240970129</v>
+        <v>0.1566237323180181</v>
       </c>
       <c r="K23" t="n">
-        <v>1.145938396538839</v>
+        <v>0.2209573528268367</v>
       </c>
       <c r="L23" t="n">
-        <v>2.089533985090927</v>
+        <v>1.025331132672489</v>
       </c>
       <c r="M23" t="n">
-        <v>0.6089878311893896</v>
+        <v>0.4474384201340409</v>
       </c>
       <c r="N23" t="n">
-        <v>1.032464819456483</v>
+        <v>1.017525172785029</v>
       </c>
       <c r="O23" t="n">
-        <v>0.6349137039417216</v>
+        <v>0.4664868000043639</v>
       </c>
       <c r="P23" t="n">
-        <v>131.983827972394</v>
+        <v>133.2168654375007</v>
       </c>
       <c r="Q23" t="n">
-        <v>211.210756588827</v>
+        <v>212.4437940539338</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_8_7_22</t>
+          <t>model_8_7_2</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9439305956310425</v>
+        <v>0.9650419556807215</v>
       </c>
       <c r="C24" t="n">
-        <v>0.6964860987300276</v>
+        <v>0.7010009923933722</v>
       </c>
       <c r="D24" t="n">
-        <v>0.4936191512143943</v>
+        <v>0.9011635995534545</v>
       </c>
       <c r="E24" t="n">
-        <v>0.8371109616772787</v>
+        <v>0.991097887358015</v>
       </c>
       <c r="F24" t="n">
-        <v>0.8428098715758394</v>
+        <v>0.9685099695727202</v>
       </c>
       <c r="G24" t="n">
-        <v>0.3749363651910866</v>
+        <v>0.2337646033300088</v>
       </c>
       <c r="H24" t="n">
-        <v>2.029598855345315</v>
+        <v>1.999407740629357</v>
       </c>
       <c r="I24" t="n">
-        <v>1.481291298614659</v>
+        <v>0.3643302662113539</v>
       </c>
       <c r="J24" t="n">
-        <v>0.840977621052901</v>
+        <v>0.09740564571735258</v>
       </c>
       <c r="K24" t="n">
-        <v>1.16113456727265</v>
+        <v>0.2308679559643533</v>
       </c>
       <c r="L24" t="n">
-        <v>2.084004572466156</v>
+        <v>0.840847506088625</v>
       </c>
       <c r="M24" t="n">
-        <v>0.6123204758874936</v>
+        <v>0.4834920923138338</v>
       </c>
       <c r="N24" t="n">
-        <v>1.032821114752561</v>
+        <v>1.020463245455187</v>
       </c>
       <c r="O24" t="n">
-        <v>0.6383882262241495</v>
+        <v>0.5040753516502408</v>
       </c>
       <c r="P24" t="n">
-        <v>131.9619979204699</v>
+        <v>132.9068812772514</v>
       </c>
       <c r="Q24" t="n">
-        <v>211.188926536903</v>
+        <v>212.1338098936844</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_8_7_23</t>
+          <t>model_8_7_1</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9433686075244003</v>
+        <v>0.9564517640766939</v>
       </c>
       <c r="C25" t="n">
-        <v>0.6957493198723048</v>
+        <v>0.6869963805973619</v>
       </c>
       <c r="D25" t="n">
-        <v>0.4867689574886357</v>
+        <v>0.8561749212791292</v>
       </c>
       <c r="E25" t="n">
-        <v>0.8356660923035992</v>
+        <v>0.9948652659149374</v>
       </c>
       <c r="F25" t="n">
-        <v>0.8409485867173706</v>
+        <v>0.9600113329967251</v>
       </c>
       <c r="G25" t="n">
-        <v>0.3786943822479203</v>
+        <v>0.2912072541403367</v>
       </c>
       <c r="H25" t="n">
-        <v>2.034525698959463</v>
+        <v>2.093056644194585</v>
       </c>
       <c r="I25" t="n">
-        <v>1.501329837560445</v>
+        <v>0.5301673167122636</v>
       </c>
       <c r="J25" t="n">
-        <v>0.8484373176728895</v>
+        <v>0.05618352735546767</v>
       </c>
       <c r="K25" t="n">
-        <v>1.174883536182946</v>
+        <v>0.293175385590847</v>
       </c>
       <c r="L25" t="n">
-        <v>2.078989889596998</v>
+        <v>0.670798955055802</v>
       </c>
       <c r="M25" t="n">
-        <v>0.615381493260823</v>
+        <v>0.539636223895632</v>
       </c>
       <c r="N25" t="n">
-        <v>1.033150083400351</v>
+        <v>1.025491650296569</v>
       </c>
       <c r="O25" t="n">
-        <v>0.641579557444241</v>
+        <v>0.5626096551478506</v>
       </c>
       <c r="P25" t="n">
-        <v>131.9420515569829</v>
+        <v>132.4674401035473</v>
       </c>
       <c r="Q25" t="n">
-        <v>211.168980173416</v>
+        <v>211.6943687199804</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>model_8_7_0</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.9430771979807627</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.6678856148156904</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.7796570807811154</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.995994464226064</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.9416177131468429</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.3806430392080427</v>
+      </c>
+      <c r="H26" t="n">
+        <v>2.220850422973608</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.8122270140768657</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.0438280006325774</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.4280275073547215</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.4936450361776433</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.6169627535014108</v>
+      </c>
+      <c r="N26" t="n">
+        <v>1.033320664596627</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0.6432281352069307</v>
+      </c>
+      <c r="P26" t="n">
+        <v>131.931786495982</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>211.158715112415</v>
       </c>
     </row>
   </sheetData>
